--- a/s2t/s2t.xlsx
+++ b/s2t/s2t.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="16560"/>
   </bookViews>
   <sheets>
-    <sheet name="loader_type" sheetId="1" r:id="rId1"/>
+    <sheet name="loader_name" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,9 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>id_loader_name</t>
+  </si>
   <si>
     <t>loader_name</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>tech_changed_dttm</t>
   </si>
   <si>
     <t>csv</t>
@@ -1191,30 +1200,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.8125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
